--- a/app/data/pool_index.xlsx
+++ b/app/data/pool_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB279DE3-686A-4056-A269-A477BF95C706}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50150189-7DFD-4B21-8C84-BEE2DDDD0497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiers" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1028">
   <si>
     <t>number</t>
   </si>
@@ -3156,19 +3156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3511,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
@@ -3789,7 +3788,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4635,11 +4634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BH168"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BA6" sqref="BA6"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4650,7 +4649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4832,10 +4831,10 @@
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>236220</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="W2" t="s">
         <v>16</v>
       </c>
@@ -4847,28 +4846,28 @@
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>238130</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="Y3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>238140</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="Y4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>238160</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="Y5" t="s">
         <v>16</v>
       </c>
@@ -4880,10 +4879,10 @@
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>238210</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="AG6" t="s">
         <v>16</v>
       </c>
@@ -4892,10 +4891,10 @@
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>238220</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="Y7" t="s">
         <v>16</v>
       </c>
@@ -4919,10 +4918,10 @@
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>238290</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="AE8" t="s">
         <v>16</v>
       </c>
@@ -4931,37 +4930,37 @@
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>238310</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="Y9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>238320</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="Y10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>238350</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="Y11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>238990</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="Y12" t="s">
         <v>16</v>
       </c>
@@ -4973,82 +4972,82 @@
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>333318</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="X13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>511199</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="X14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>512110</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="V15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>519130</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="X16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>522310</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="U17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>523110</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="U18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>524292</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="U19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>531210</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="U20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>531312</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="AS21" t="s">
         <v>16</v>
       </c>
@@ -5057,19 +5056,19 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>541110</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="U22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>541211</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -5081,10 +5080,10 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>541213</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="D24" t="s">
         <v>16</v>
       </c>
@@ -5093,10 +5092,10 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>541214</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="D25" t="s">
         <v>16</v>
       </c>
@@ -5108,10 +5107,10 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>541219</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="D26" t="s">
         <v>16</v>
       </c>
@@ -5123,10 +5122,10 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>541330</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
@@ -5149,10 +5148,10 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>541350</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="AY28" t="s">
         <v>16</v>
       </c>
@@ -5161,10 +5160,10 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>541360</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
@@ -5172,10 +5171,10 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>541370</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
@@ -5186,37 +5185,42 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>541380</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
       <c r="Z31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>541430</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="V32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>541511</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="V33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>541611</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
@@ -5236,10 +5240,10 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>541612</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
@@ -5253,28 +5257,28 @@
       </c>
     </row>
     <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>541612</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>541612</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>541612</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>541613</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
@@ -5291,34 +5295,34 @@
       </c>
     </row>
     <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>541613</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>541613</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>541613</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>541613</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>541614</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
@@ -5329,22 +5333,22 @@
       </c>
     </row>
     <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>541614</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>541614</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>541618</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
@@ -5358,28 +5362,28 @@
       </c>
     </row>
     <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>541618</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>541618</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>541618</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>541620</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
@@ -5390,22 +5394,22 @@
       </c>
     </row>
     <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>541620</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>541620</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>541690</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
@@ -5413,16 +5417,16 @@
       </c>
     </row>
     <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>541690</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>541711</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
       <c r="H56" t="s">
         <v>16</v>
       </c>
@@ -5434,22 +5438,22 @@
       </c>
     </row>
     <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>541711</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>541711</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>541712</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
       <c r="H59" t="s">
         <v>16</v>
       </c>
@@ -5479,58 +5483,58 @@
       </c>
     </row>
     <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>541712</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>541712</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>541712</v>
       </c>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>541712</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>541712</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>541712</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>541712</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>541712</v>
       </c>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>541720</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
       <c r="D68" t="s">
         <v>16</v>
       </c>
@@ -5539,16 +5543,16 @@
       </c>
     </row>
     <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>541720</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>541810</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
@@ -5559,22 +5563,22 @@
       </c>
     </row>
     <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>541810</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>541810</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>541820</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
@@ -5585,22 +5589,22 @@
       </c>
     </row>
     <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>541820</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>541820</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>541830</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
@@ -5608,16 +5612,16 @@
       </c>
     </row>
     <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>541830</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>541840</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
@@ -5625,16 +5629,16 @@
       </c>
     </row>
     <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>541840</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>541850</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
@@ -5645,22 +5649,22 @@
       </c>
     </row>
     <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>541850</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>541850</v>
       </c>
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>541860</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
@@ -5668,16 +5672,16 @@
       </c>
     </row>
     <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>541860</v>
       </c>
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>541870</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
@@ -5685,16 +5689,16 @@
       </c>
     </row>
     <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>541870</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>541890</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
@@ -5702,16 +5706,16 @@
       </c>
     </row>
     <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>541890</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>541910</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
@@ -5722,40 +5726,40 @@
       </c>
     </row>
     <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>541910</v>
       </c>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>541910</v>
       </c>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>541922</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
       <c r="V92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>541930</v>
       </c>
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
       <c r="T93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>541990</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
@@ -5766,22 +5770,22 @@
       </c>
     </row>
     <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>541990</v>
       </c>
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>541990</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>561210</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
       <c r="Y97" t="s">
         <v>16</v>
       </c>
@@ -5889,232 +5893,232 @@
       </c>
     </row>
     <row r="98" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>561210</v>
       </c>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>561210</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>561210</v>
       </c>
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>561210</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>561210</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>561210</v>
       </c>
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>561210</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>561210</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>561210</v>
       </c>
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>561210</v>
       </c>
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>561210</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>561210</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>561210</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>561210</v>
       </c>
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>561210</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>561210</v>
       </c>
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>561210</v>
       </c>
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>561210</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>561210</v>
       </c>
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>561210</v>
       </c>
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>561210</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>561210</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>561210</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>561210</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>561210</v>
       </c>
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>561210</v>
       </c>
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>561210</v>
       </c>
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>561210</v>
       </c>
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>561210</v>
       </c>
-      <c r="B126" s="4"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>561210</v>
       </c>
-      <c r="B127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>561210</v>
       </c>
-      <c r="B128" s="4"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>561210</v>
       </c>
-      <c r="B129" s="4"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>561210</v>
       </c>
-      <c r="B130" s="4"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>561210</v>
       </c>
-      <c r="B131" s="4"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>561440</v>
       </c>
-      <c r="B132" s="4"/>
+      <c r="B132" s="3"/>
       <c r="U132" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>561450</v>
       </c>
-      <c r="B133" s="4"/>
+      <c r="B133" s="3"/>
       <c r="U133" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>561621</v>
       </c>
-      <c r="B134" s="4"/>
+      <c r="B134" s="3"/>
       <c r="AM134" t="s">
         <v>16</v>
       </c>
@@ -6123,16 +6127,16 @@
       </c>
     </row>
     <row r="135" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>561621</v>
       </c>
-      <c r="B135" s="4"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>561710</v>
       </c>
-      <c r="B136" s="4"/>
+      <c r="B136" s="3"/>
       <c r="BC136" t="s">
         <v>16</v>
       </c>
@@ -6141,16 +6145,16 @@
       </c>
     </row>
     <row r="137" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>561710</v>
       </c>
-      <c r="B137" s="4"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>561720</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" s="3"/>
       <c r="AI138" t="s">
         <v>16</v>
       </c>
@@ -6159,16 +6163,16 @@
       </c>
     </row>
     <row r="139" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>561720</v>
       </c>
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>561730</v>
       </c>
-      <c r="B140" s="4"/>
+      <c r="B140" s="3"/>
       <c r="AK140" t="s">
         <v>16</v>
       </c>
@@ -6183,37 +6187,37 @@
       </c>
     </row>
     <row r="141" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>561730</v>
       </c>
-      <c r="B141" s="4"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>561730</v>
       </c>
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>561730</v>
       </c>
-      <c r="B143" s="4"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>561920</v>
       </c>
-      <c r="B144" s="4"/>
+      <c r="B144" s="3"/>
       <c r="V144" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>562111</v>
       </c>
-      <c r="B145" s="4"/>
+      <c r="B145" s="3"/>
       <c r="BE145" t="s">
         <v>16</v>
       </c>
@@ -6222,61 +6226,61 @@
       </c>
     </row>
     <row r="146" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>562111</v>
       </c>
-      <c r="B146" s="4"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>562112</v>
       </c>
-      <c r="B147" s="4"/>
+      <c r="B147" s="3"/>
       <c r="Z147" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>562910</v>
       </c>
-      <c r="B148" s="4"/>
+      <c r="B148" s="3"/>
       <c r="Z148" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>562920</v>
       </c>
-      <c r="B149" s="4"/>
+      <c r="B149" s="3"/>
       <c r="Z149" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>611310</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="3"/>
       <c r="X150" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>611410</v>
       </c>
-      <c r="B151" s="4"/>
+      <c r="B151" s="3"/>
       <c r="X151" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>611430</v>
       </c>
-      <c r="B152" s="4"/>
+      <c r="B152" s="3"/>
       <c r="P152" t="s">
         <v>16</v>
       </c>
@@ -6288,64 +6292,64 @@
       </c>
     </row>
     <row r="153" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>611430</v>
       </c>
-      <c r="B153" s="4"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>611430</v>
       </c>
-      <c r="B154" s="4"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>611512</v>
       </c>
-      <c r="B155" s="4"/>
+      <c r="B155" s="3"/>
       <c r="X155" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>611513</v>
       </c>
-      <c r="B156" s="4"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>611519</v>
       </c>
-      <c r="B157" s="4"/>
+      <c r="B157" s="3"/>
       <c r="X157" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>611691</v>
       </c>
-      <c r="B158" s="4"/>
+      <c r="B158" s="3"/>
       <c r="X158" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>611692</v>
       </c>
-      <c r="B159" s="4"/>
+      <c r="B159" s="3"/>
       <c r="X159" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>611699</v>
       </c>
-      <c r="B160" s="4"/>
+      <c r="B160" s="3"/>
       <c r="P160" t="s">
         <v>16</v>
       </c>
@@ -6357,22 +6361,22 @@
       </c>
     </row>
     <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>611699</v>
       </c>
-      <c r="B161" s="4"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>611699</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>611710</v>
       </c>
-      <c r="B163" s="4"/>
+      <c r="B163" s="3"/>
       <c r="P163" t="s">
         <v>16</v>
       </c>
@@ -6390,37 +6394,37 @@
       </c>
     </row>
     <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>611710</v>
       </c>
-      <c r="B164" s="4"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>611710</v>
       </c>
-      <c r="B165" s="4"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>624310</v>
       </c>
-      <c r="B166" s="4"/>
+      <c r="B166" s="3"/>
       <c r="X166" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>624310</v>
       </c>
-      <c r="B167" s="4"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>624310</v>
       </c>
-      <c r="B168" s="4"/>
+      <c r="B168" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A168" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -15022,7 +15026,7 @@
       </c>
     </row>
     <row r="750" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A750" s="5" t="s">
+      <c r="A750" s="4" t="s">
         <v>974</v>
       </c>
       <c r="AA750" s="1" t="s">
@@ -15033,7 +15037,7 @@
       </c>
     </row>
     <row r="751" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A751" s="5" t="s">
+      <c r="A751" s="4" t="s">
         <v>975</v>
       </c>
       <c r="AA751" s="1" t="s">
@@ -15050,7 +15054,7 @@
       </c>
     </row>
     <row r="752" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A752" s="5" t="s">
+      <c r="A752" s="4" t="s">
         <v>976</v>
       </c>
       <c r="AC752" s="1" t="s">
@@ -15061,7 +15065,7 @@
       </c>
     </row>
     <row r="753" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A753" s="5" t="s">
+      <c r="A753" s="4" t="s">
         <v>977</v>
       </c>
       <c r="AG753" s="1" t="s">
@@ -15072,7 +15076,7 @@
       </c>
     </row>
     <row r="754" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A754" s="5" t="s">
+      <c r="A754" s="4" t="s">
         <v>978</v>
       </c>
       <c r="AM754" s="1" t="s">
@@ -16430,7 +16434,7 @@
       </c>
     </row>
     <row r="788" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A788" s="5" t="s">
+      <c r="A788" s="4" t="s">
         <v>1007</v>
       </c>
       <c r="AM788" s="1" t="s">
